--- a/2.2017 정규교육 연간일정표★최종★중특.xlsx
+++ b/2.2017 정규교육 연간일정표★최종★중특.xlsx
@@ -1104,17 +1104,17 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
@@ -1938,7 +1938,7 @@
       <pane xSplit="9" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2015,69 +2015,69 @@
       <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="Q3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="34" t="s">
+      <c r="S3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="34" t="s">
+      <c r="T3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="34" t="s">
+      <c r="U3" s="33" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="40"/>
       <c r="F4" s="2" t="s">
         <v>18</v>
@@ -2091,18 +2091,18 @@
       <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
     </row>
     <row r="5" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -2112,12 +2112,12 @@
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="22" t="s">
         <v>6</v>
       </c>
@@ -2156,11 +2156,11 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="3">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>76</v>
@@ -2201,9 +2201,9 @@
       <c r="U6" s="14"/>
     </row>
     <row r="7" spans="1:21" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="3">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>28</v>
@@ -2248,9 +2248,9 @@
       <c r="U7" s="14"/>
     </row>
     <row r="8" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="3">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>29</v>
@@ -2297,9 +2297,9 @@
       <c r="U8" s="14"/>
     </row>
     <row r="9" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>30</v>
@@ -2344,11 +2344,11 @@
       <c r="U9" s="14"/>
     </row>
     <row r="10" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>31</v>
@@ -2395,9 +2395,9 @@
       <c r="U10" s="14"/>
     </row>
     <row r="11" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>32</v>
@@ -2444,7 +2444,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="3">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>33</v>
@@ -2490,6 +2490,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="A6:A9"/>
@@ -2506,18 +2518,6 @@
     <mergeCell ref="C3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/2.2017 정규교육 연간일정표★최종★중특.xlsx
+++ b/2.2017 정규교육 연간일정표★최종★중특.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>구분</t>
   </si>
@@ -88,10 +88,6 @@
   </si>
   <si>
     <t>02-2624-0201~5</t>
-  </si>
-  <si>
-    <t>29-30서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>중소기업특별 (고용보험환급과정)</t>
@@ -104,16 +100,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>품질
-개선
-(QI)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>품질경영(QM)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>품질 리스크 최소화를 위한 제품안전관리</t>
   </si>
   <si>
@@ -121,71 +107,18 @@
   </si>
   <si>
     <t>눈으로 보는 품질관리 스킬업(Skill-Up)</t>
-  </si>
-  <si>
-    <t>융합적 사고기법을 적용한 품질개선활동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객 불만 제로화를 위한 품질개선 노하우</t>
-  </si>
-  <si>
-    <t>스토리텔링으로 배우는 품질경영 노하우</t>
   </si>
   <si>
     <t>27-28부산</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>8-9의정부
-26-27대전</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>23-24울산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2서울
-22-23안산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-7대구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-21청주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>21-22의정부</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>22-23인천
-24-25울산
-29-30원주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>18-19아산
-19-20인천</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>27-28청주</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>21-22안산
 30-12.1아산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2울산
-29-30서울
-29-30대구</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -195,29 +128,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>13-14청주
-13-14구미
-27-28서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>29-30부산</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>28-29서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>28-29대전</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-9울산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-4대전</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -226,135 +141,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>18-19구미
-22-23창원
-25-26청주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1-2수원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>25-26전주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>17-18인천</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>27-28대전</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9-10아산
-16-17전주
-21-22수원
-30-12.1서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9-10청주
-30-31인천</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-8안산
-11-12대전
-19-20전주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>25-26대전</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>15-16창원
-30-31안산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>31-9.1아산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-13창원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19-20구미
-26-27울산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-14울산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>25-26청주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19-20안산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-14수원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-8아산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10-11아산
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>17-18의정부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-18-19안산
-24-25서울
-25-26전주</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12-13아산
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>27-28의정부</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -389,6 +176,24 @@
     <t>※         부분 클릭시 교육내용 및 신청페이지로 이동합니다!</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>22-23창원
+25-26청주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-20구미</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-7수원
+10-11아산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-14청주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -398,7 +203,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#&quot;일&quot;"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,14 +384,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1004,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,9 +817,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,19 +883,19 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1225,7 +1019,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>113347</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="358140" cy="363855"/>
     <xdr:pic>
@@ -1252,7 +1046,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5294947" y="31108650"/>
+          <a:off x="5294947" y="1504950"/>
           <a:ext cx="358140" cy="363855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1277,7 +1071,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>113347</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="358140" cy="363855"/>
     <xdr:pic>
@@ -1304,7 +1098,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5294947" y="31794450"/>
+          <a:off x="5294947" y="2047875"/>
           <a:ext cx="358140" cy="363855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1329,7 +1123,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>113347</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="358140" cy="363855"/>
     <xdr:pic>
@@ -1356,59 +1150,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5294947" y="32299275"/>
-          <a:ext cx="358140" cy="363855"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>113347</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="358140" cy="363855"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5294947" y="33985200"/>
+          <a:off x="5294947" y="2590800"/>
           <a:ext cx="358140" cy="363855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1433,13 +1175,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>113347</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="358140" cy="363855"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="93" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
@@ -1460,111 +1202,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5294947" y="32804100"/>
-          <a:ext cx="358140" cy="363855"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>113347</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="358140" cy="363855"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5294947" y="33261300"/>
-          <a:ext cx="358140" cy="363855"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>113347</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="358140" cy="363855"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="Picture 7" descr="C:\Users\Park\AppData\Local\Microsoft\Windows\INetCache\IE\UV07R0NC\clickherebutton-animated[1].gif">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5294947" y="34642425"/>
+          <a:off x="5294947" y="3143250"/>
           <a:ext cx="358140" cy="363855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1932,35 +1570,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="47.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="47.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="7" customWidth="1"/>
     <col min="6" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="9" customWidth="1"/>
-    <col min="13" max="13" width="9.375" style="9" customWidth="1"/>
-    <col min="14" max="14" width="9" style="9" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="9" customWidth="1"/>
-    <col min="16" max="16" width="9.875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.125" style="9" customWidth="1"/>
-    <col min="20" max="20" width="10.375" style="9" customWidth="1"/>
-    <col min="21" max="21" width="8.25" style="9" customWidth="1"/>
+    <col min="10" max="11" width="9.375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="8" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="9" style="8" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="8" customWidth="1"/>
+    <col min="16" max="16" width="9.875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="10.125" style="8" customWidth="1"/>
+    <col min="20" max="20" width="10.375" style="8" customWidth="1"/>
+    <col min="21" max="21" width="8.25" style="8" customWidth="1"/>
     <col min="22" max="22" width="7.25" style="1" customWidth="1"/>
     <col min="23" max="23" width="24.5" style="1" customWidth="1"/>
     <col min="24" max="16384" width="8.75" style="1"/>
@@ -1968,117 +1606,117 @@
   <sheetData>
     <row r="1" spans="1:21" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="28" t="s">
-        <v>78</v>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
     </row>
     <row r="2" spans="1:21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="30" t="s">
-        <v>77</v>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="S3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="U3" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="40"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2091,405 +1729,250 @@
       <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
     </row>
     <row r="5" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="42.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="R5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="T5" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="U5" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
-        <v>25</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="26">
+      <c r="C6" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="25">
         <v>16</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <v>120</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="26">
         <v>120</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="14"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:21" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
+    <row r="7" spans="1:21" ht="42.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="25">
+        <v>16</v>
+      </c>
+      <c r="H7" s="25">
+        <v>120</v>
+      </c>
+      <c r="I7" s="26">
+        <v>120</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="26">
-        <v>16</v>
-      </c>
-      <c r="H7" s="26">
-        <v>120</v>
-      </c>
-      <c r="I7" s="27">
-        <v>120</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" s="14"/>
-      <c r="T7" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="14"/>
+      <c r="M7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="17"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+    <row r="8" spans="1:21" ht="42.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
       <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="25">
+        <v>16</v>
+      </c>
+      <c r="H8" s="25">
+        <v>120</v>
+      </c>
+      <c r="I8" s="26">
+        <v>120</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="26">
-        <v>16</v>
-      </c>
-      <c r="H8" s="26">
-        <v>120</v>
-      </c>
-      <c r="I8" s="27">
-        <v>120</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="14"/>
+      <c r="N8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="15"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
+    <row r="9" spans="1:21" ht="42.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
       <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="25">
+        <v>16</v>
+      </c>
+      <c r="H9" s="25">
+        <v>120</v>
+      </c>
+      <c r="I9" s="26">
+        <v>120</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="26">
-        <v>16</v>
-      </c>
-      <c r="H9" s="26">
-        <v>120</v>
-      </c>
-      <c r="I9" s="27">
-        <v>120</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="U9" s="14"/>
-    </row>
-    <row r="10" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3">
-        <v>5</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="26">
-        <v>16</v>
-      </c>
-      <c r="H10" s="26">
-        <v>120</v>
-      </c>
-      <c r="I10" s="27">
-        <v>120</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="T10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="U10" s="14"/>
-    </row>
-    <row r="11" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="3">
-        <v>6</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="26">
-        <v>16</v>
-      </c>
-      <c r="H11" s="26">
-        <v>120</v>
-      </c>
-      <c r="I11" s="27">
-        <v>120</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="T11" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="U11" s="14"/>
-    </row>
-    <row r="12" spans="1:21" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="3">
-        <v>7</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="26">
-        <v>16</v>
-      </c>
-      <c r="H12" s="26">
-        <v>120</v>
-      </c>
-      <c r="I12" s="27">
-        <v>120</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12" s="17" t="s">
-        <v>71</v>
-      </c>
+      <c r="U9" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="24">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
@@ -2502,22 +1985,6 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/2.2017 정규교육 연간일정표★최종★중특.xlsx
+++ b/2.2017 정규교육 연간일정표★최종★중특.xlsx
@@ -464,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -568,6 +568,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -801,7 +838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,9 +920,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -920,6 +954,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1576,7 +1619,7 @@
       <pane xSplit="9" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1604,119 +1647,119 @@
     <col min="24" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
     </row>
     <row r="2" spans="1:21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="T3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="32" t="s">
+      <c r="U3" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="39"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1729,18 +1772,18 @@
       <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
     </row>
     <row r="5" spans="1:21" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -1750,12 +1793,12 @@
       <c r="C5" s="19"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="21" t="s">
         <v>6</v>
       </c>
@@ -1794,16 +1837,16 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="42.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="22"/>
       <c r="F6" s="24" t="s">
         <v>36</v>
@@ -1835,14 +1878,14 @@
       <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:21" ht="42.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="22"/>
       <c r="F7" s="24" t="s">
         <v>37</v>
@@ -1874,14 +1917,14 @@
       <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:21" ht="42.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="23"/>
       <c r="F8" s="24" t="s">
         <v>37</v>
@@ -1913,14 +1956,14 @@
       <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21" ht="42.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="23"/>
       <c r="F9" s="24" t="s">
         <v>37</v>
@@ -1960,7 +2003,20 @@
       <c r="U9" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="A6:A9"/>
@@ -1973,18 +2029,6 @@
     <mergeCell ref="C3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
